--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/62_JsonToWorkbookLineChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/62_JsonToWorkbookLineChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Historical Prices" sheetId="1" r:id="R9232f8f21ecc444a"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="Ra2710e8c21194b33"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Historical Prices" sheetId="1" r:id="R172c8163cb1c4054"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R9ce0c2bf78664cc4"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -186,7 +186,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R8f06a3ce69ac4df1"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0796e05d0ff34e80"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3137,6 +3137,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R7969c85bcf004480"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R20622647b1f04596"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/62_JsonToWorkbookLineChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/62_JsonToWorkbookLineChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Historical Prices" sheetId="1" r:id="R172c8163cb1c4054"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R9ce0c2bf78664cc4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Historical Prices" sheetId="1" r:id="R86dcb21bfb62419f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R907b14a8c92841ea"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -186,7 +186,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0796e05d0ff34e80"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re0a7a76fac5a4122"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3137,6 +3137,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R20622647b1f04596"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Re03232049bf04956"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/62_JsonToWorkbookLineChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/62_JsonToWorkbookLineChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Historical Prices" sheetId="1" r:id="R86dcb21bfb62419f"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R907b14a8c92841ea"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Historical Prices" sheetId="1" r:id="R71690433e62b4eb5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R66cc3299f56a4453"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -186,7 +186,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re0a7a76fac5a4122"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R64e761eb93554bdf"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3137,6 +3137,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Re03232049bf04956"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R5afe785ef04a4cbe"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/62_JsonToWorkbookLineChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/62_JsonToWorkbookLineChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Historical Prices" sheetId="1" r:id="R71690433e62b4eb5"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R66cc3299f56a4453"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Historical Prices" sheetId="1" r:id="R3290e97f91ac4971"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R1369658944a34eb6"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -186,7 +186,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R64e761eb93554bdf"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R237571343ff64f4f"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3137,6 +3137,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R5afe785ef04a4cbe"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc97f6b2f437c4e6b"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/62_JsonToWorkbookLineChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/62_JsonToWorkbookLineChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Historical Prices" sheetId="1" r:id="R3290e97f91ac4971"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R1369658944a34eb6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Historical Prices" sheetId="1" r:id="R8ae4e511176b4977"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R24066b3c760e4f3c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -186,7 +186,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R237571343ff64f4f"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9835758330454c94"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3137,6 +3137,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc97f6b2f437c4e6b"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd9d8a84551bd4d51"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/62_JsonToWorkbookLineChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/62_JsonToWorkbookLineChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Historical Prices" sheetId="1" r:id="R8ae4e511176b4977"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R24066b3c760e4f3c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Historical Prices" sheetId="1" r:id="Rf22e267594bd4736"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="Ra31c0fb28b55432b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -186,7 +186,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9835758330454c94"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf93b225cc7ad486f"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3137,6 +3137,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd9d8a84551bd4d51"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R3458491e9574410b"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/62_JsonToWorkbookLineChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/62_JsonToWorkbookLineChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Historical Prices" sheetId="1" r:id="Rf22e267594bd4736"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="Ra31c0fb28b55432b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Historical Prices" sheetId="1" r:id="Rf5d331119cb74deb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="Rec0d97032d3d4dce"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -186,7 +186,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf93b225cc7ad486f"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4304f38cd4824417"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3137,6 +3137,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R3458491e9574410b"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2e9324be86634d0f"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/62_JsonToWorkbookLineChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/62_JsonToWorkbookLineChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Historical Prices" sheetId="1" r:id="Rf5d331119cb74deb"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="Rec0d97032d3d4dce"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Historical Prices" sheetId="1" r:id="R7e410bfe6cb44cf9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="Rf5ae0f2e990348e7"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -186,7 +186,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4304f38cd4824417"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc5710054ba9a4752"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3137,6 +3137,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2e9324be86634d0f"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rebdfec6f0b634b87"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/62_JsonToWorkbookLineChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/62_JsonToWorkbookLineChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Historical Prices" sheetId="1" r:id="R7e410bfe6cb44cf9"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="Rf5ae0f2e990348e7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Historical Prices" sheetId="1" r:id="Rdecc95fbe32e4c66"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R3c130b86418441d2"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -186,7 +186,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc5710054ba9a4752"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R57013eb0a9944281"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3137,6 +3137,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rebdfec6f0b634b87"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra3bc30bad73045f7"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/62_JsonToWorkbookLineChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/62_JsonToWorkbookLineChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Historical Prices" sheetId="1" r:id="Rdecc95fbe32e4c66"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R3c130b86418441d2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Historical Prices" sheetId="1" r:id="R2aee6d43a50e407c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R8cd46fb3cef34922"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -186,7 +186,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R57013eb0a9944281"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5931464b4286493d"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3137,6 +3137,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra3bc30bad73045f7"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R928ddecdb3564a4c"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/62_JsonToWorkbookLineChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/62_JsonToWorkbookLineChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Historical Prices" sheetId="1" r:id="R2aee6d43a50e407c"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R8cd46fb3cef34922"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Historical Prices" sheetId="1" r:id="R370ecb7b53804cff"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R079122096b16433e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -186,7 +186,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5931464b4286493d"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R328351d7b6dd4374"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3137,6 +3137,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R928ddecdb3564a4c"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rfe3b7d45401f49de"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/62_JsonToWorkbookLineChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/62_JsonToWorkbookLineChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Historical Prices" sheetId="1" r:id="R370ecb7b53804cff"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R079122096b16433e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Historical Prices" sheetId="1" r:id="Raa3d495ca0f3462d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R134a0ab33b994e93"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -186,7 +186,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R328351d7b6dd4374"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc4e2007ad9e54f57"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3137,6 +3137,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rfe3b7d45401f49de"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R7757f2bf6c4c44eb"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/62_JsonToWorkbookLineChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/62_JsonToWorkbookLineChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Historical Prices" sheetId="1" r:id="Raa3d495ca0f3462d"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R134a0ab33b994e93"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Historical Prices" sheetId="1" r:id="Rc2932240ee90402d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R24a1c1d858ff4961"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -116,6 +116,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Price</c:v>
+          </c:tx>
           <c:cat>
             <c:strRef>
               <c:f>'Historical Prices'!$A$2:$A$366</c:f>
@@ -186,7 +189,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc4e2007ad9e54f57"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd81d142049ae4134"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3137,6 +3140,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R7757f2bf6c4c44eb"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc2b0d4a8098a4c7d"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/62_JsonToWorkbookLineChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/62_JsonToWorkbookLineChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Historical Prices" sheetId="1" r:id="Rc2932240ee90402d"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R24a1c1d858ff4961"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Historical Prices" sheetId="1" r:id="Rbd41099f71134966"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R3adc4e793aa149e5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -189,7 +189,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd81d142049ae4134"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R6609e571b07742f4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3140,6 +3140,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc2b0d4a8098a4c7d"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R73b98024a45d4496"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/62_JsonToWorkbookLineChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/62_JsonToWorkbookLineChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Historical Prices" sheetId="1" r:id="Rbd41099f71134966"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R3adc4e793aa149e5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Historical Prices" sheetId="1" r:id="Rf9b434d4d9a047ad"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R3caa999351ff4ae3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -119,6 +119,9 @@
           <c:tx>
             <c:v>Price</c:v>
           </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>'Historical Prices'!$A$2:$A$366</c:f>
@@ -189,7 +192,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R6609e571b07742f4"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5fa38540ec414876"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3140,6 +3143,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R73b98024a45d4496"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Reaf98f71cb9f49ea"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/62_JsonToWorkbookLineChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/62_JsonToWorkbookLineChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Historical Prices" sheetId="1" r:id="Rf9b434d4d9a047ad"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R3caa999351ff4ae3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Historical Prices" sheetId="1" r:id="R4bd7b9fc44344b0c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="Rb3c4ad6bd1a04084"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -192,7 +192,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5fa38540ec414876"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R615539f845714002"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3143,6 +3143,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Reaf98f71cb9f49ea"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd76e7de47fd04e7e"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/62_JsonToWorkbookLineChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/62_JsonToWorkbookLineChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Historical Prices" sheetId="1" r:id="R4bd7b9fc44344b0c"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="Rb3c4ad6bd1a04084"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Historical Prices" sheetId="1" r:id="R203b448d3bc94436"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R3d3baca2c4c241d8"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -192,7 +192,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R615539f845714002"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R94b332a15e0d4aa2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3143,6 +3143,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd76e7de47fd04e7e"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd1fb48848c594985"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/62_JsonToWorkbookLineChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/62_JsonToWorkbookLineChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Historical Prices" sheetId="1" r:id="R203b448d3bc94436"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R3d3baca2c4c241d8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Historical Prices" sheetId="1" r:id="R7a8cbbc0e2cb4b27"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R7116e02339c74865"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -192,7 +192,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R94b332a15e0d4aa2"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb5d93fddbe1745cb"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3143,6 +3143,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd1fb48848c594985"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb023ff469fad4c9c"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/62_JsonToWorkbookLineChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/62_JsonToWorkbookLineChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Historical Prices" sheetId="1" r:id="R7a8cbbc0e2cb4b27"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R7116e02339c74865"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Historical Prices" sheetId="1" r:id="Rd963159bfe3340ef"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R16c39846032447b1"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -133,6 +133,14 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="1"/>
         <c:axId val="2"/>
       </c:lineChart>
@@ -192,7 +200,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb5d93fddbe1745cb"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R825a87db656a414a"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3143,6 +3151,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb023ff469fad4c9c"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R00b12690fca948c9"/>
 </x:worksheet>
 </file>